--- a/DMSNewVSale_2025-10-19_20-37.xlsx
+++ b/DMSNewVSale_2025-10-19_20-37.xlsx
@@ -41,85 +41,610 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMARYL 2 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 250MG 20 TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>13.2600</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>210.00</t>
   </si>
   <si>
-    <t>315.0000</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>CONCOR 5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>BEBELAC 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>310.0000</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
+    <t>BRIVAFUTAL 100 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>327.00</t>
+  </si>
+  <si>
+    <t>327.0000</t>
+  </si>
+  <si>
+    <t>BRONCHONEER 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
+    <t>CALCIUM D3F 30 TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>48.2400</t>
+  </si>
+  <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA FORTE TOPICAL GEL 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>GRODESIRE SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>MELANOFREE CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 24 F.C. TAB</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>PRUCASOFT 2MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>PSYCHOLANZ 6/25 MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>174.00</t>
+  </si>
+  <si>
+    <t>174.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:5</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>RELAX CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
+  </si>
+  <si>
+    <t>0:19</t>
+  </si>
+  <si>
+    <t>176.00</t>
+  </si>
+  <si>
+    <t>17.6000</t>
+  </si>
+  <si>
+    <t>TETANUS ANTITOXIN 1500 I U 10 AMPOULES</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>220.0000</t>
+  </si>
+  <si>
+    <t>TRITOSPOT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG 6 TAB</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>34.1700</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>23:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>33:0</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سكاته بوب تون</t>
+  </si>
+  <si>
+    <t>شاور جل ايفا 500مل</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>34:0</t>
+  </si>
+  <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>غيار طبي غير لاصق 15*25 سم</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
     <t>25:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>قصافات كبار</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>معجون سيجنال عرض 50ملل</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
     <t>Sunday, 19 October, 2025 8:37 PM</t>
@@ -790,7 +1315,7 @@
         <v>14</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -799,14 +1324,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -816,11 +1341,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>11</v>
@@ -832,14 +1357,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -849,14 +1374,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -865,31 +1390,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -898,31 +1423,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -931,68 +1456,2081 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>11</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>12</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>35</v>
       </c>
-      <c t="s" r="Q12" s="12">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" ht="25.5" customHeight="1">
-      <c r="N13" s="13">
-        <v>594.25999999999999</v>
-      </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c t="s" r="Q13" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>37</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>28</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>12</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>38</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>39</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c t="s" r="Q14" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>40</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>24</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>12</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>41</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>43</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>44</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>12</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>45</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>47</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>24</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>12</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>48</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>50</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>24</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>12</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>51</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>53</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>16</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>12</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>54</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>56</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>11</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>12</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>57</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>59</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>60</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>12</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>61</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>63</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>64</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>12</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>65</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>67</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>30</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>12</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>68</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>70</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>71</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>12</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>72</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>74</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>16</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>12</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>75</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>77</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>78</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>12</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>79</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>81</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>16</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>12</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>82</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>84</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>85</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>12</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>86</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>88</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>24</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>12</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>89</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>91</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>24</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>12</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>92</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>94</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>95</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>12</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>96</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>98</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>30</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>12</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>99</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>101</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>16</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>12</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>102</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>104</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>24</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>105</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>106</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>108</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>44</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>12</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>109</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>111</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>24</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>12</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>112</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>114</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>11</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>12</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>65</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>116</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>117</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>12</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>118</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>120</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>121</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>12</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>122</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>124</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>11</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>12</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>125</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>127</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>128</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>12</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>20</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>130</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>131</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>105</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>132</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>133</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>71</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>12</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>134</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>136</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>137</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>105</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>138</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>139</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>30</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>12</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>17</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>140</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>11</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>12</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>141</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>142</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>11</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>12</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>143</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>144</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>11</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>12</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>145</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>147</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>24</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>12</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>148</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>150</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>151</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>12</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>152</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>154</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>24</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>12</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>155</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>157</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>11</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>12</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>138</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>159</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>16</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>12</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>160</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>162</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>163</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>12</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>164</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>166</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>24</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>12</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>167</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>169</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>24</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>12</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>170</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>172</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>128</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>12</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>20</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>173</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>24</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>12</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>174</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>176</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>24</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>12</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>143</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>177</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>24</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>12</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>86</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>179</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>117</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>12</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>48</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>181</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>24</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>105</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>182</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>185</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>24</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>105</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>186</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>188</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>131</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>105</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>143</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>189</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>22</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>105</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>190</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>192</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>193</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>105</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>25</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>194</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>85</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>105</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>190</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>195</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>196</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>105</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>190</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>198</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>24</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>105</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>199</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>201</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>202</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>105</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>203</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>205</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>206</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>105</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>207</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>208</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>71</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>105</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>209</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>211</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>196</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>105</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>207</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" ht="26.25" customHeight="1">
+      <c r="N74" s="13">
+        <v>4211.54</v>
+      </c>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>212</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>213</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>214</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1031,10 +3569,315 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="N74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
